--- a/pengujian sistem.xlsx
+++ b/pengujian sistem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="admin fakultas" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="116">
   <si>
     <t>No</t>
   </si>
@@ -308,7 +308,7 @@
     <t>berhasil CRUD</t>
   </si>
   <si>
-    <t>tidak berhasil menambahkan data untuk tahun yg sama. edit dan hapus sukses</t>
+    <t>tidak berhasil menambahkan data untuk tahun yg sama tapi prodi berbeda. edit dan hapus sukses</t>
   </si>
   <si>
     <t>K.9 tingkat_relevansi_pekerjaan</t>
@@ -363,6 +363,18 @@
   </si>
   <si>
     <t>tidak ada tombol kembali</t>
+  </si>
+  <si>
+    <t>tombol edit dan hapus</t>
+  </si>
+  <si>
+    <t>tombol icon</t>
+  </si>
+  <si>
+    <t>icon pada tombol edit dan hapus</t>
+  </si>
+  <si>
+    <t>sebaigan tombol tidak menggunakan icon</t>
   </si>
   <si>
     <t>Hasil Yang Didapa</t>
@@ -551,7 +563,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -561,6 +573,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,7 +914,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -920,16 +938,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -938,89 +956,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1028,6 +1046,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1371,21 +1394,21 @@
   <sheetPr/>
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="23.2857142857143" style="6" customWidth="1"/>
-    <col min="3" max="3" width="23.8571428571429" style="6" customWidth="1"/>
-    <col min="4" max="4" width="23.7142857142857" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19" style="6" customWidth="1"/>
-    <col min="6" max="6" width="19.2857142857143" style="6" customWidth="1"/>
-    <col min="7" max="7" width="22.1428571428571" style="6" customWidth="1"/>
-    <col min="8" max="8" width="24.7142857142857" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="23.2857142857143" style="9" customWidth="1"/>
+    <col min="3" max="3" width="23.8571428571429" style="9" customWidth="1"/>
+    <col min="4" max="4" width="23.7142857142857" style="9" customWidth="1"/>
+    <col min="5" max="5" width="19" style="9" customWidth="1"/>
+    <col min="6" max="6" width="19.2857142857143" style="9" customWidth="1"/>
+    <col min="7" max="7" width="22.1428571428571" style="9" customWidth="1"/>
+    <col min="8" max="8" width="24.7142857142857" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.5" spans="1:8">
@@ -2749,8 +2772,8 @@
   <sheetPr/>
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2761,7 +2784,7 @@
     <col min="5" max="5" width="14.2857142857143" customWidth="1"/>
     <col min="6" max="6" width="19.2857142857143" customWidth="1"/>
     <col min="7" max="7" width="22.8571428571429" customWidth="1"/>
-    <col min="8" max="8" width="19.5714285714286" customWidth="1"/>
+    <col min="8" max="8" width="39.4952380952381" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="63" spans="1:8">
@@ -2966,29 +2989,29 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" ht="47.25" spans="1:8">
-      <c r="A9" s="3">
+    <row r="9" s="5" customFormat="1" ht="47.25" spans="1:8">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="7" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3068,7 +3091,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" ht="63" spans="1:8">
+    <row r="13" ht="47.25" spans="1:8">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3194,17 +3217,31 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" ht="15.75" spans="1:8">
+    <row r="18" ht="31.5" spans="1:8">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="19" ht="15.75" spans="1:8">
       <c r="A19" s="3">
@@ -4243,8 +4280,8 @@
   <sheetPr/>
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4278,7 +4315,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>

--- a/pengujian sistem.xlsx
+++ b/pengujian sistem.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="83">
   <si>
     <t>No</t>
   </si>
@@ -37,165 +37,75 @@
     <t>Identifikasi/menu</t>
   </si>
   <si>
+    <t>Prosedur Pengujian</t>
+  </si>
+  <si>
+    <t>Masukan</t>
+  </si>
+  <si>
+    <t>Kriteria Evaluasi Hasil</t>
+  </si>
+  <si>
+    <t>Hasil Yang Didapat</t>
+  </si>
+  <si>
+    <t>Kesimpulan</t>
+  </si>
+  <si>
+    <t>/kriteria2/bidang_pengembangan_kelembagaan</t>
+  </si>
+  <si>
+    <t>menampilkan alert belum pilih prodi</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>menampilkan alert</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>tidak menampilkan alert</t>
+  </si>
+  <si>
+    <t>kriteria2/bidang_pkm</t>
+  </si>
+  <si>
+    <t>/kriteria2/bidang_penelitian</t>
+  </si>
+  <si>
+    <t>kriteria6/integrasi_hasil_penelitian_dan_pkM_dalam_proses_pembelajaran</t>
+  </si>
+  <si>
+    <t>menampilkan data</t>
+  </si>
+  <si>
+    <t>terjadi error syntax : syntax error, unexpected end of file, expecting "elseif" or "else" or "endif"</t>
+  </si>
+  <si>
     <t>Deskripsi</t>
   </si>
   <si>
-    <t>Prosedur Pengujian</t>
-  </si>
-  <si>
-    <t>Masukan</t>
-  </si>
-  <si>
-    <t>Kriteria Evaluasi Hasil</t>
-  </si>
-  <si>
-    <t>Hasil Yang Didapat</t>
-  </si>
-  <si>
-    <t>Kesimpulan</t>
-  </si>
-  <si>
-    <t>bagian menu akreditas</t>
-  </si>
-  <si>
-    <t>menu tidak menampilkan tombol tambah, edit, dan hapus</t>
-  </si>
-  <si>
-    <t>melihat data</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>tidak menampilkan tombol crud</t>
-  </si>
-  <si>
-    <t>failed</t>
-  </si>
-  <si>
-    <t>masih ada tombol aksi tambah data, edit, hapus. serta tombol link tidak rapi</t>
-  </si>
-  <si>
-    <t>bagian menu akreditasi K2-K4</t>
-  </si>
-  <si>
-    <t>pengujian menampilkan data sesuai data prodi</t>
-  </si>
-  <si>
-    <t>menampilkan data sesuai prodi</t>
-  </si>
-  <si>
-    <t>belum pilih prodi. tapi data sudah muncul</t>
-  </si>
-  <si>
-    <t>testing untuk menampilkan alert bahwa belum pilih prodi untuk session</t>
-  </si>
-  <si>
-    <t>menampilkan info belum pilih prodi untuk setiap tabel pada menu akreditasi</t>
-  </si>
-  <si>
-    <t>semua tabel dari K2-K8 belum menampikan info belum pilih prodi jika admin fakultas belum pilih prodi</t>
-  </si>
-  <si>
-    <t>bagian /dataprodi/semua</t>
-  </si>
-  <si>
-    <t>pengujian mengelola data prodi</t>
-  </si>
-  <si>
-    <t>CRUD</t>
-  </si>
-  <si>
-    <t>data prodi</t>
-  </si>
-  <si>
-    <t>berhasil menampilkan data, edit, dan hapus prodi</t>
+    <t>bagian /login</t>
+  </si>
+  <si>
+    <t>uji melakukan login</t>
+  </si>
+  <si>
+    <t>melakukan login</t>
+  </si>
+  <si>
+    <t>email dan password</t>
+  </si>
+  <si>
+    <t>berhasil masuk ke dashboard</t>
   </si>
   <si>
     <t>sukses</t>
   </si>
   <si>
-    <t>bagian /akun/index</t>
-  </si>
-  <si>
-    <t>menampilkan data user</t>
-  </si>
-  <si>
-    <t>berhasil menampilkan data akun</t>
-  </si>
-  <si>
-    <t>bagian /akun/create</t>
-  </si>
-  <si>
-    <t>uji menambahkan data user</t>
-  </si>
-  <si>
-    <t>proses untuk menambahkan user serta mengirimkan email</t>
-  </si>
-  <si>
-    <t>data user</t>
-  </si>
-  <si>
-    <t>berhasil membuat akun baru dan mengirimkan email</t>
-  </si>
-  <si>
-    <t>bagian /akun/2/edit</t>
-  </si>
-  <si>
-    <t>uji memperbaharui data user</t>
-  </si>
-  <si>
-    <t>proses memperbaharui data user</t>
-  </si>
-  <si>
-    <t>data user baru</t>
-  </si>
-  <si>
-    <t>berhasil updata data user</t>
-  </si>
-  <si>
-    <t>uji delete hapus</t>
-  </si>
-  <si>
-    <t>proses menghapus data</t>
-  </si>
-  <si>
-    <t>id user</t>
-  </si>
-  <si>
-    <t>berhasil delete data user</t>
-  </si>
-  <si>
-    <t>bagian /akun/profil</t>
-  </si>
-  <si>
-    <t>uji update data akun fakultas</t>
-  </si>
-  <si>
-    <t>proses update akun</t>
-  </si>
-  <si>
-    <t>data akun</t>
-  </si>
-  <si>
-    <t>berhasil update data akun fakultas</t>
-  </si>
-  <si>
-    <t>bagian /login</t>
-  </si>
-  <si>
-    <t>uji melakukan login</t>
-  </si>
-  <si>
-    <t>melakukan login</t>
-  </si>
-  <si>
-    <t>email dan password</t>
-  </si>
-  <si>
-    <t>berhasil masuk ke dashboard</t>
-  </si>
-  <si>
     <t>uji menampilkan notif  jika tidak berhasil login</t>
   </si>
   <si>
@@ -266,9 +176,6 @@
   </si>
   <si>
     <t>semua sub menu pada kriteria</t>
-  </si>
-  <si>
-    <t>tidak menampilkan data sesuai program studi. pastikan lagi bahwa data yang di tampilkan adalah data sesuai prodi</t>
   </si>
   <si>
     <t xml:space="preserve">bagian K7. Aktivitas, Relevansi, Dan Pelibatan Mahasiswa Dalam Penelitian
@@ -296,6 +203,9 @@
     <t>uji CRUD</t>
   </si>
   <si>
+    <t>CRUD</t>
+  </si>
+  <si>
     <t>berhasil  CRUD</t>
   </si>
   <si>
@@ -308,9 +218,6 @@
     <t>berhasil CRUD</t>
   </si>
   <si>
-    <t>tidak berhasil menambahkan data untuk tahun yg sama tapi prodi berbeda. edit dan hapus sukses</t>
-  </si>
-  <si>
     <t>K.9 tingkat_relevansi_pekerjaan</t>
   </si>
   <si>
@@ -326,9 +233,6 @@
     <t>berhasil menambahkan data</t>
   </si>
   <si>
-    <t>tidak berhasil, karena data sudah ada pada database untuk prodi yang lain</t>
-  </si>
-  <si>
     <t>K.9 Tingkat Kepuasan Pengguna Lulusan</t>
   </si>
   <si>
@@ -345,9 +249,6 @@
   </si>
   <si>
     <t>berhasil menghapusn data</t>
-  </si>
-  <si>
-    <t>The GET method is not supported for route repository/2. Supported methods: PUT, DELETE.</t>
   </si>
   <si>
     <t>/dokumen/1/edit</t>
@@ -1392,26 +1293,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
-    <col min="2" max="2" width="23.2857142857143" style="9" customWidth="1"/>
-    <col min="3" max="3" width="23.8571428571429" style="9" customWidth="1"/>
-    <col min="4" max="4" width="23.7142857142857" style="9" customWidth="1"/>
-    <col min="5" max="5" width="19" style="9" customWidth="1"/>
-    <col min="6" max="6" width="19.2857142857143" style="9" customWidth="1"/>
-    <col min="7" max="7" width="22.1428571428571" style="9" customWidth="1"/>
-    <col min="8" max="8" width="24.7142857142857" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="2" max="2" width="66.8571428571429" style="9" customWidth="1"/>
+    <col min="3" max="3" width="23.7142857142857" style="9" customWidth="1"/>
+    <col min="4" max="4" width="19" style="9" customWidth="1"/>
+    <col min="5" max="5" width="19.2857142857143" style="9" customWidth="1"/>
+    <col min="6" max="6" width="22.1428571428571" style="9" customWidth="1"/>
+    <col min="7" max="7" width="24.7142857142857" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" spans="1:8">
+    <row r="1" ht="31.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1433,245 +1333,151 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" ht="49" customHeight="1" spans="1:8">
+    </row>
+    <row r="2" ht="49" customHeight="1" spans="1:7">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" ht="31.5" spans="1:8">
+    </row>
+    <row r="3" ht="31.5" spans="1:7">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" ht="63" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="31.5" spans="1:7">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" ht="47.25" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="63" spans="1:7">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" ht="31.5" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" ht="47.25" spans="1:8">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" ht="31.5" spans="1:8">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" ht="31.5" spans="1:8">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" ht="31.5" spans="1:8">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1681,9 +1487,8 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1693,9 +1498,8 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1705,9 +1509,8 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1717,9 +1520,8 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8">
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1729,9 +1531,8 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8">
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1741,9 +1542,8 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8">
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1753,9 +1553,8 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1765,9 +1564,8 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8">
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1777,9 +1575,8 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8">
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1789,9 +1586,8 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8">
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1801,9 +1597,8 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8">
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1813,9 +1608,8 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8">
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1825,9 +1619,8 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8">
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1837,9 +1630,8 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8">
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1849,9 +1641,8 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8">
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1861,9 +1652,8 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8">
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1873,9 +1663,8 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8">
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1885,9 +1674,8 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8">
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1897,9 +1685,8 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8">
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1909,9 +1696,8 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8">
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1921,9 +1707,8 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8">
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1933,9 +1718,8 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8">
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1945,9 +1729,8 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8">
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1957,9 +1740,8 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8">
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1969,9 +1751,8 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8">
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1981,9 +1762,8 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8">
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1993,9 +1773,8 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8">
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -2005,9 +1784,8 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8">
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -2017,9 +1795,8 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8">
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -2029,9 +1806,8 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8">
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -2041,9 +1817,8 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8">
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -2053,9 +1828,8 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8">
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -2065,9 +1839,8 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8">
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -2077,9 +1850,8 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:8">
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -2089,9 +1861,8 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8">
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -2101,9 +1872,8 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8">
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -2113,9 +1883,8 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8">
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -2125,9 +1894,8 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8">
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -2137,9 +1905,8 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="1:8">
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -2149,9 +1916,8 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="1:8">
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -2161,9 +1927,8 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="1:8">
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -2173,9 +1938,8 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="1:8">
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -2185,9 +1949,8 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="1:8">
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -2197,9 +1960,8 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="1:8">
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -2209,9 +1971,8 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8">
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -2221,9 +1982,8 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="1:8">
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -2233,9 +1993,8 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:8">
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -2245,9 +2004,8 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="1:8">
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -2257,9 +2015,8 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="1:8">
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -2269,9 +2026,8 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="1:8">
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -2281,9 +2037,8 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="1:8">
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -2293,9 +2048,8 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="1:8">
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -2305,9 +2059,8 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-    </row>
-    <row r="64" spans="1:8">
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -2317,9 +2070,8 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="1:8">
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -2329,9 +2081,8 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="1:8">
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -2341,9 +2092,8 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="1:8">
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -2353,9 +2103,8 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="1:8">
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -2365,9 +2114,8 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="1:8">
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -2377,9 +2125,8 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="1:8">
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -2389,9 +2136,8 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="1:8">
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -2401,9 +2147,8 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="1:8">
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -2413,9 +2158,8 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="1:8">
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -2425,9 +2169,8 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-    </row>
-    <row r="74" spans="1:8">
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -2437,9 +2180,8 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-    </row>
-    <row r="75" spans="1:8">
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -2449,9 +2191,8 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-    </row>
-    <row r="76" spans="1:8">
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -2461,9 +2202,8 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-    </row>
-    <row r="77" spans="1:8">
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -2473,9 +2213,8 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-    </row>
-    <row r="78" spans="1:8">
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -2485,9 +2224,8 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-    </row>
-    <row r="79" spans="1:8">
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -2497,9 +2235,8 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-    </row>
-    <row r="80" spans="1:8">
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -2509,9 +2246,8 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-    </row>
-    <row r="81" spans="1:8">
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -2521,9 +2257,8 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-    </row>
-    <row r="82" spans="1:8">
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -2533,9 +2268,8 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-    </row>
-    <row r="83" spans="1:8">
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -2545,9 +2279,8 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-    </row>
-    <row r="84" spans="1:8">
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -2557,9 +2290,8 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-    </row>
-    <row r="85" spans="1:8">
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -2569,9 +2301,8 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-    </row>
-    <row r="86" spans="1:8">
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -2581,9 +2312,8 @@
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-    </row>
-    <row r="87" spans="1:8">
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -2593,9 +2323,8 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-    </row>
-    <row r="88" spans="1:8">
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -2605,9 +2334,8 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-    </row>
-    <row r="89" spans="1:8">
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -2617,9 +2345,8 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-    </row>
-    <row r="90" spans="1:8">
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -2629,9 +2356,8 @@
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-    </row>
-    <row r="91" spans="1:8">
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -2641,9 +2367,8 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-    </row>
-    <row r="92" spans="1:8">
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -2653,9 +2378,8 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-    </row>
-    <row r="93" spans="1:8">
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -2665,9 +2389,8 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-    </row>
-    <row r="94" spans="1:8">
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -2677,9 +2400,8 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-    </row>
-    <row r="95" spans="1:8">
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -2689,9 +2411,8 @@
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-    </row>
-    <row r="96" spans="1:8">
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -2701,9 +2422,8 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-    </row>
-    <row r="97" spans="1:8">
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -2713,9 +2433,8 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-    </row>
-    <row r="98" spans="1:8">
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -2725,9 +2444,8 @@
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-    </row>
-    <row r="99" spans="1:8">
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -2737,9 +2455,8 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-    </row>
-    <row r="100" spans="1:8">
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -2749,17 +2466,40 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G$1:G$1048576">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="between" text="sukses">
-      <formula>NOT(ISERROR(SEARCH("sukses",G1)))</formula>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="containsText" dxfId="0" priority="6" operator="between" text="sukses">
+      <formula>NOT(ISERROR(SEARCH("sukses",F2)))</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="1" priority="3" operator="notContains" text="sukses">
+      <formula>ISERROR(SEARCH("sukses",F2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G1048576">
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="between" text="sukses">
+      <formula>NOT(ISERROR(SEARCH("sukses",F3)))</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="1" priority="2" operator="notContains" text="sukses">
+      <formula>ISERROR(SEARCH("sukses",F3))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="between" text="sukses">
+      <formula>NOT(ISERROR(SEARCH("sukses",F4)))</formula>
+    </cfRule>
     <cfRule type="notContainsText" dxfId="1" priority="1" operator="notContains" text="sukses">
-      <formula>ISERROR(SEARCH("sukses",G2))</formula>
+      <formula>ISERROR(SEARCH("sukses",F4))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F1048576">
+    <cfRule type="notContainsText" dxfId="1" priority="7" operator="notContains" text="sukses">
+      <formula>ISERROR(SEARCH("sukses",F5))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1;F5:F1048576">
+    <cfRule type="containsText" dxfId="0" priority="8" operator="between" text="sukses">
+      <formula>NOT(ISERROR(SEARCH("sukses",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2772,8 +2512,8 @@
   <sheetPr/>
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2787,7 +2527,7 @@
     <col min="8" max="8" width="39.4952380952381" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="63" spans="1:8">
+    <row r="1" ht="31.5" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2795,22 +2535,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" ht="31.5" spans="1:8">
@@ -2818,25 +2558,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" ht="47.25" spans="1:8">
@@ -2844,25 +2584,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" ht="47.25" spans="1:8">
@@ -2870,25 +2610,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" ht="47.25" spans="1:8">
@@ -2896,25 +2636,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" ht="47.25" spans="1:8">
@@ -2922,22 +2662,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -2946,22 +2686,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -2970,75 +2710,75 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" s="5" customFormat="1" ht="47.25" spans="1:8">
+    <row r="9" s="5" customFormat="1" ht="31.5" spans="1:8">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" ht="94.5" spans="1:8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" ht="31.5" spans="1:8">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" ht="78.75" spans="1:8">
@@ -3046,25 +2786,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" ht="47.25" spans="1:8">
@@ -3072,125 +2812,125 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" ht="47.25" spans="1:8">
+    <row r="13" ht="15.75" spans="1:8">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" ht="63" spans="1:8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" ht="47.25" spans="1:8">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" ht="63" spans="1:8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" ht="31.5" spans="1:8">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" ht="78.75" spans="1:8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" ht="31.5" spans="1:8">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" ht="31.5" spans="1:8">
@@ -3198,23 +2938,23 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" ht="31.5" spans="1:8">
@@ -3222,25 +2962,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="H18" s="4" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" ht="15.75" spans="1:8">
@@ -4281,7 +4021,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4295,7 +4035,7 @@
     <col min="8" max="8" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="63" spans="1:8">
+    <row r="1" ht="31.5" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4303,22 +4043,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:8">

--- a/pengujian sistem.xlsx
+++ b/pengujian sistem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="admin fakultas" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="77">
   <si>
     <t>No</t>
   </si>
@@ -64,24 +64,24 @@
     <t>menampilkan alert</t>
   </si>
   <si>
+    <t>sukses</t>
+  </si>
+  <si>
+    <t>kriteria2/bidang_pkm</t>
+  </si>
+  <si>
+    <t>/kriteria2/bidang_penelitian</t>
+  </si>
+  <si>
+    <t>kriteria6/integrasi_hasil_penelitian_dan_pkM_dalam_proses_pembelajaran</t>
+  </si>
+  <si>
+    <t>menampilkan data</t>
+  </si>
+  <si>
     <t>failed</t>
   </si>
   <si>
-    <t>tidak menampilkan alert</t>
-  </si>
-  <si>
-    <t>kriteria2/bidang_pkm</t>
-  </si>
-  <si>
-    <t>/kriteria2/bidang_penelitian</t>
-  </si>
-  <si>
-    <t>kriteria6/integrasi_hasil_penelitian_dan_pkM_dalam_proses_pembelajaran</t>
-  </si>
-  <si>
-    <t>menampilkan data</t>
-  </si>
-  <si>
     <t>terjadi error syntax : syntax error, unexpected end of file, expecting "elseif" or "else" or "endif"</t>
   </si>
   <si>
@@ -103,9 +103,6 @@
     <t>berhasil masuk ke dashboard</t>
   </si>
   <si>
-    <t>sukses</t>
-  </si>
-  <si>
     <t>uji menampilkan notif  jika tidak berhasil login</t>
   </si>
   <si>
@@ -155,21 +152,6 @@
   </si>
   <si>
     <t>menampilkan data matkul sesuai prodi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uji insert, update dan delete data </t>
-  </si>
-  <si>
-    <t>pengujian insert, update dan delete</t>
-  </si>
-  <si>
-    <t>data matakuliah</t>
-  </si>
-  <si>
-    <t>berhasil insert, update, dan delete</t>
-  </si>
-  <si>
-    <t>tidak bisa edit data, tidak menampilkan notif jika ingin delete</t>
   </si>
   <si>
     <t>Bagian semua data Kuantitaf LED</t>
@@ -206,6 +188,9 @@
     <t>CRUD</t>
   </si>
   <si>
+    <t>data matakuliah</t>
+  </si>
+  <si>
     <t>berhasil  CRUD</t>
   </si>
   <si>
@@ -261,9 +246,6 @@
   </si>
   <si>
     <t>tersedia tombol kembali</t>
-  </si>
-  <si>
-    <t>tidak ada tombol kembali</t>
   </si>
   <si>
     <t>tombol edit dan hapus</t>
@@ -464,7 +446,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,12 +456,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,7 +791,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -839,16 +815,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -857,89 +833,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -947,11 +923,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1295,20 +1266,20 @@
   <sheetPr/>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
-    <col min="2" max="2" width="66.8571428571429" style="9" customWidth="1"/>
-    <col min="3" max="3" width="23.7142857142857" style="9" customWidth="1"/>
-    <col min="4" max="4" width="19" style="9" customWidth="1"/>
-    <col min="5" max="5" width="19.2857142857143" style="9" customWidth="1"/>
-    <col min="6" max="6" width="22.1428571428571" style="9" customWidth="1"/>
-    <col min="7" max="7" width="24.7142857142857" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="66.8571428571429" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.7142857142857" style="6" customWidth="1"/>
+    <col min="4" max="4" width="19" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.2857142857143" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.1428571428571" style="6" customWidth="1"/>
+    <col min="7" max="7" width="24.7142857142857" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.5" spans="1:7">
@@ -1354,7 +1325,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="31.5" spans="1:7">
@@ -1362,7 +1333,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
@@ -1375,7 +1346,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="31.5" spans="1:7">
@@ -1383,7 +1354,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
@@ -1396,7 +1367,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" ht="63" spans="1:7">
@@ -1404,19 +1375,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>17</v>
@@ -2468,37 +2439,21 @@
       <c r="G100" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2">
-    <cfRule type="containsText" dxfId="0" priority="6" operator="between" text="sukses">
+  <conditionalFormatting sqref="F2:F4">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="between" text="sukses">
       <formula>NOT(ISERROR(SEARCH("sukses",F2)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="1" priority="3" operator="notContains" text="sukses">
+    <cfRule type="notContainsText" dxfId="1" priority="1" operator="notContains" text="sukses">
       <formula>ISERROR(SEARCH("sukses",F2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="0" priority="5" operator="between" text="sukses">
-      <formula>NOT(ISERROR(SEARCH("sukses",F3)))</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="1" priority="2" operator="notContains" text="sukses">
-      <formula>ISERROR(SEARCH("sukses",F3))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="0" priority="4" operator="between" text="sukses">
-      <formula>NOT(ISERROR(SEARCH("sukses",F4)))</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="1" priority="1" operator="notContains" text="sukses">
-      <formula>ISERROR(SEARCH("sukses",F4))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F5:F1048576">
-    <cfRule type="notContainsText" dxfId="1" priority="7" operator="notContains" text="sukses">
+    <cfRule type="notContainsText" dxfId="1" priority="9" operator="notContains" text="sukses">
       <formula>ISERROR(SEARCH("sukses",F5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1;F5:F1048576">
-    <cfRule type="containsText" dxfId="0" priority="8" operator="between" text="sukses">
+    <cfRule type="containsText" dxfId="0" priority="10" operator="between" text="sukses">
       <formula>NOT(ISERROR(SEARCH("sukses",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2510,10 +2465,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2573,7 +2528,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>9</v>
@@ -2587,19 +2542,19 @@
         <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>9</v>
@@ -2610,22 +2565,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>9</v>
@@ -2636,22 +2591,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>9</v>
@@ -2662,22 +2617,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -2686,22 +2641,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -2710,80 +2665,80 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" ht="31.5" spans="1:8">
+      <c r="A9" s="3">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" s="5" customFormat="1" ht="31.5" spans="1:8">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" ht="78.75" spans="1:8">
+      <c r="A10" s="3">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="E10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" ht="47.25" spans="1:8">
+      <c r="A11" s="3">
         <v>11</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" ht="31.5" spans="1:8">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" ht="78.75" spans="1:8">
-      <c r="A11" s="3">
-        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>49</v>
@@ -2803,46 +2758,46 @@
       <c r="G11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" ht="15.75" spans="1:8">
+      <c r="A12" s="3">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" ht="47.25" spans="1:8">
-      <c r="A12" s="3">
+      <c r="C12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="4" t="s">
+    </row>
+    <row r="13" ht="47.25" spans="1:8">
+      <c r="A13" s="3">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" ht="15.75" spans="1:8">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>60</v>
@@ -2851,141 +2806,127 @@
         <v>61</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" ht="47.25" spans="1:8">
+    <row r="14" ht="31.5" spans="1:8">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" ht="31.5" spans="1:8">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="G15" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" ht="31.5" spans="1:8">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" ht="31.5" spans="1:8">
       <c r="A17" s="3">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" ht="31.5" spans="1:8">
+    </row>
+    <row r="18" ht="15.75" spans="1:8">
       <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>81</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" ht="15.75" spans="1:8">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2997,7 +2938,7 @@
     </row>
     <row r="20" ht="15.75" spans="1:8">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3009,7 +2950,7 @@
     </row>
     <row r="21" ht="15.75" spans="1:8">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -3021,7 +2962,7 @@
     </row>
     <row r="22" ht="15.75" spans="1:8">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3033,7 +2974,7 @@
     </row>
     <row r="23" ht="15.75" spans="1:8">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3045,7 +2986,7 @@
     </row>
     <row r="24" ht="15.75" spans="1:8">
       <c r="A24" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -3057,7 +2998,7 @@
     </row>
     <row r="25" ht="15.75" spans="1:8">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3069,7 +3010,7 @@
     </row>
     <row r="26" ht="15.75" spans="1:8">
       <c r="A26" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3081,7 +3022,7 @@
     </row>
     <row r="27" ht="15.75" spans="1:8">
       <c r="A27" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -3093,7 +3034,7 @@
     </row>
     <row r="28" ht="15.75" spans="1:8">
       <c r="A28" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -3105,7 +3046,7 @@
     </row>
     <row r="29" ht="15.75" spans="1:8">
       <c r="A29" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3117,7 +3058,7 @@
     </row>
     <row r="30" ht="15.75" spans="1:8">
       <c r="A30" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3129,7 +3070,7 @@
     </row>
     <row r="31" ht="15.75" spans="1:8">
       <c r="A31" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3141,7 +3082,7 @@
     </row>
     <row r="32" ht="15.75" spans="1:8">
       <c r="A32" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3153,7 +3094,7 @@
     </row>
     <row r="33" ht="15.75" spans="1:8">
       <c r="A33" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3165,7 +3106,7 @@
     </row>
     <row r="34" ht="15.75" spans="1:8">
       <c r="A34" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3177,7 +3118,7 @@
     </row>
     <row r="35" ht="15.75" spans="1:8">
       <c r="A35" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3189,7 +3130,7 @@
     </row>
     <row r="36" ht="15.75" spans="1:8">
       <c r="A36" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3201,7 +3142,7 @@
     </row>
     <row r="37" ht="15.75" spans="1:8">
       <c r="A37" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3213,7 +3154,7 @@
     </row>
     <row r="38" ht="15.75" spans="1:8">
       <c r="A38" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -3225,7 +3166,7 @@
     </row>
     <row r="39" ht="15.75" spans="1:8">
       <c r="A39" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -3237,7 +3178,7 @@
     </row>
     <row r="40" ht="15.75" spans="1:8">
       <c r="A40" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -3249,7 +3190,7 @@
     </row>
     <row r="41" ht="15.75" spans="1:8">
       <c r="A41" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -3261,7 +3202,7 @@
     </row>
     <row r="42" ht="15.75" spans="1:8">
       <c r="A42" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -3273,7 +3214,7 @@
     </row>
     <row r="43" ht="15.75" spans="1:8">
       <c r="A43" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -3285,7 +3226,7 @@
     </row>
     <row r="44" ht="15.75" spans="1:8">
       <c r="A44" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -3297,7 +3238,7 @@
     </row>
     <row r="45" ht="15.75" spans="1:8">
       <c r="A45" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -3309,7 +3250,7 @@
     </row>
     <row r="46" ht="15.75" spans="1:8">
       <c r="A46" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -3321,7 +3262,7 @@
     </row>
     <row r="47" ht="15.75" spans="1:8">
       <c r="A47" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -3333,7 +3274,7 @@
     </row>
     <row r="48" ht="15.75" spans="1:8">
       <c r="A48" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -3345,7 +3286,7 @@
     </row>
     <row r="49" ht="15.75" spans="1:8">
       <c r="A49" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -3357,7 +3298,7 @@
     </row>
     <row r="50" ht="15.75" spans="1:8">
       <c r="A50" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -3369,7 +3310,7 @@
     </row>
     <row r="51" ht="15.75" spans="1:8">
       <c r="A51" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -3381,7 +3322,7 @@
     </row>
     <row r="52" ht="15.75" spans="1:8">
       <c r="A52" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -3393,7 +3334,7 @@
     </row>
     <row r="53" ht="15.75" spans="1:8">
       <c r="A53" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -3405,7 +3346,7 @@
     </row>
     <row r="54" ht="15.75" spans="1:8">
       <c r="A54" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -3417,7 +3358,7 @@
     </row>
     <row r="55" ht="15.75" spans="1:8">
       <c r="A55" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -3429,7 +3370,7 @@
     </row>
     <row r="56" ht="15.75" spans="1:8">
       <c r="A56" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -3441,7 +3382,7 @@
     </row>
     <row r="57" ht="15.75" spans="1:8">
       <c r="A57" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -3453,7 +3394,7 @@
     </row>
     <row r="58" ht="15.75" spans="1:8">
       <c r="A58" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -3465,7 +3406,7 @@
     </row>
     <row r="59" ht="15.75" spans="1:8">
       <c r="A59" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3477,7 +3418,7 @@
     </row>
     <row r="60" ht="15.75" spans="1:8">
       <c r="A60" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -3489,7 +3430,7 @@
     </row>
     <row r="61" ht="15.75" spans="1:8">
       <c r="A61" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -3501,7 +3442,7 @@
     </row>
     <row r="62" ht="15.75" spans="1:8">
       <c r="A62" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -3513,7 +3454,7 @@
     </row>
     <row r="63" ht="15.75" spans="1:8">
       <c r="A63" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -3525,7 +3466,7 @@
     </row>
     <row r="64" ht="15.75" spans="1:8">
       <c r="A64" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -3537,7 +3478,7 @@
     </row>
     <row r="65" ht="15.75" spans="1:8">
       <c r="A65" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -3549,7 +3490,7 @@
     </row>
     <row r="66" ht="15.75" spans="1:8">
       <c r="A66" s="3">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -3561,7 +3502,7 @@
     </row>
     <row r="67" ht="15.75" spans="1:8">
       <c r="A67" s="3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -3573,7 +3514,7 @@
     </row>
     <row r="68" ht="15.75" spans="1:8">
       <c r="A68" s="3">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -3585,7 +3526,7 @@
     </row>
     <row r="69" ht="15.75" spans="1:8">
       <c r="A69" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -3597,7 +3538,7 @@
     </row>
     <row r="70" ht="15.75" spans="1:8">
       <c r="A70" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -3609,7 +3550,7 @@
     </row>
     <row r="71" ht="15.75" spans="1:8">
       <c r="A71" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -3621,7 +3562,7 @@
     </row>
     <row r="72" ht="15.75" spans="1:8">
       <c r="A72" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -3633,7 +3574,7 @@
     </row>
     <row r="73" ht="15.75" spans="1:8">
       <c r="A73" s="3">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -3645,7 +3586,7 @@
     </row>
     <row r="74" ht="15.75" spans="1:8">
       <c r="A74" s="3">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -3657,7 +3598,7 @@
     </row>
     <row r="75" ht="15.75" spans="1:8">
       <c r="A75" s="3">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -3669,7 +3610,7 @@
     </row>
     <row r="76" ht="15.75" spans="1:8">
       <c r="A76" s="3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -3681,7 +3622,7 @@
     </row>
     <row r="77" ht="15.75" spans="1:8">
       <c r="A77" s="3">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -3693,7 +3634,7 @@
     </row>
     <row r="78" ht="15.75" spans="1:8">
       <c r="A78" s="3">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -3705,7 +3646,7 @@
     </row>
     <row r="79" ht="15.75" spans="1:8">
       <c r="A79" s="3">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -3717,7 +3658,7 @@
     </row>
     <row r="80" ht="15.75" spans="1:8">
       <c r="A80" s="3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -3729,7 +3670,7 @@
     </row>
     <row r="81" ht="15.75" spans="1:8">
       <c r="A81" s="3">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -3741,7 +3682,7 @@
     </row>
     <row r="82" ht="15.75" spans="1:8">
       <c r="A82" s="3">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -3753,7 +3694,7 @@
     </row>
     <row r="83" ht="15.75" spans="1:8">
       <c r="A83" s="3">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -3765,7 +3706,7 @@
     </row>
     <row r="84" ht="15.75" spans="1:8">
       <c r="A84" s="3">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -3777,7 +3718,7 @@
     </row>
     <row r="85" ht="15.75" spans="1:8">
       <c r="A85" s="3">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -3789,7 +3730,7 @@
     </row>
     <row r="86" ht="15.75" spans="1:8">
       <c r="A86" s="3">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -3801,7 +3742,7 @@
     </row>
     <row r="87" ht="15.75" spans="1:8">
       <c r="A87" s="3">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -3813,7 +3754,7 @@
     </row>
     <row r="88" ht="15.75" spans="1:8">
       <c r="A88" s="3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -3825,7 +3766,7 @@
     </row>
     <row r="89" ht="15.75" spans="1:8">
       <c r="A89" s="3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -3837,7 +3778,7 @@
     </row>
     <row r="90" ht="15.75" spans="1:8">
       <c r="A90" s="3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -3849,7 +3790,7 @@
     </row>
     <row r="91" ht="15.75" spans="1:8">
       <c r="A91" s="3">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -3861,7 +3802,7 @@
     </row>
     <row r="92" ht="15.75" spans="1:8">
       <c r="A92" s="3">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -3873,7 +3814,7 @@
     </row>
     <row r="93" ht="15.75" spans="1:8">
       <c r="A93" s="3">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -3885,7 +3826,7 @@
     </row>
     <row r="94" ht="15.75" spans="1:8">
       <c r="A94" s="3">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -3897,7 +3838,7 @@
     </row>
     <row r="95" ht="15.75" spans="1:8">
       <c r="A95" s="3">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -3909,7 +3850,7 @@
     </row>
     <row r="96" ht="15.75" spans="1:8">
       <c r="A96" s="3">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -3921,7 +3862,7 @@
     </row>
     <row r="97" ht="15.75" spans="1:8">
       <c r="A97" s="3">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -3933,7 +3874,7 @@
     </row>
     <row r="98" ht="15.75" spans="1:8">
       <c r="A98" s="3">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -3945,7 +3886,7 @@
     </row>
     <row r="99" ht="15.75" spans="1:8">
       <c r="A99" s="3">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -3955,57 +3896,45 @@
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" ht="15.75" spans="1:8">
-      <c r="A100" s="3">
-        <v>99</v>
-      </c>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="notContainsText" dxfId="1" priority="4" operator="notContains" text="sukses">
+      <formula>ISERROR(SEARCH("sukses",G9))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="8" operator="between" text="sukses">
+      <formula>NOT(ISERROR(SEARCH("sukses",G9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="0" priority="8" operator="between" text="sukses">
+    <cfRule type="notContainsText" dxfId="1" priority="3" operator="notContains" text="sukses">
+      <formula>ISERROR(SEARCH("sukses",G10))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="7" operator="between" text="sukses">
       <formula>NOT(ISERROR(SEARCH("sukses",G10)))</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="1" priority="4" operator="notContains" text="sukses">
-      <formula>ISERROR(SEARCH("sukses",G10))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="0" priority="7" operator="between" text="sukses">
+    <cfRule type="notContainsText" dxfId="1" priority="2" operator="notContains" text="sukses">
+      <formula>ISERROR(SEARCH("sukses",G11))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="6" operator="between" text="sukses">
       <formula>NOT(ISERROR(SEARCH("sukses",G11)))</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="1" priority="3" operator="notContains" text="sukses">
-      <formula>ISERROR(SEARCH("sukses",G11))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="0" priority="6" operator="between" text="sukses">
+    <cfRule type="notContainsText" dxfId="1" priority="1" operator="notContains" text="sukses">
+      <formula>ISERROR(SEARCH("sukses",G12))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="5" operator="between" text="sukses">
       <formula>NOT(ISERROR(SEARCH("sukses",G12)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="1" priority="2" operator="notContains" text="sukses">
-      <formula>ISERROR(SEARCH("sukses",G12))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="containsText" dxfId="0" priority="5" operator="between" text="sukses">
-      <formula>NOT(ISERROR(SEARCH("sukses",G13)))</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="1" priority="1" operator="notContains" text="sukses">
-      <formula>ISERROR(SEARCH("sukses",G13))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G9;G14:G100">
+  <conditionalFormatting sqref="G1:G8;G13:G99">
     <cfRule type="containsText" dxfId="0" priority="10" operator="between" text="sukses">
       <formula>NOT(ISERROR(SEARCH("sukses",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G9;G14:G100">
+  <conditionalFormatting sqref="G2:G8;G13:G99">
     <cfRule type="notContainsText" dxfId="1" priority="9" operator="notContains" text="sukses">
       <formula>ISERROR(SEARCH("sukses",G2))</formula>
     </cfRule>
@@ -4055,7 +3984,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>

--- a/pengujian sistem.xlsx
+++ b/pengujian sistem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="76">
   <si>
     <t>No</t>
   </si>
@@ -216,27 +216,6 @@
   </si>
   <si>
     <t>none</t>
-  </si>
-  <si>
-    <t>fail: data tautan tidak terinput</t>
-  </si>
-  <si>
-    <t>fail : SQLSTATE[23000]: Integrity constraint violation: 1062 Duplicate entry '2022' for key 'tabel_k3_mhs_dalam_negeri.tabel_k3_mhs_dalam_negeri_tahun_akademik_unique'</t>
-  </si>
-  <si>
-    <t>fail : SQLSTATE[23000]: Integrity constraint violation: 1062 Duplicate entry '2024' for key 'tabel_k3_mhs_dalam_negeri.tabel_k3_mhs_dalam_negeri_tahun_akademik_unique'</t>
-  </si>
-  <si>
-    <t>fail : salah menampilkan nama dosen yang di edit</t>
-  </si>
-  <si>
-    <t>belum di uji</t>
-  </si>
-  <si>
-    <t>fail : The nidn nidk field is required.</t>
-  </si>
-  <si>
-    <t>fail : SQLSTATE[42S22]: Column not found: 1054 Unknown column 'id_tendik' in 'where clause'</t>
   </si>
   <si>
     <t>fail : The jumlah_ts2 format is invalid. It should be in the format like 123,000,000.
@@ -247,19 +226,7 @@
     <t>fail : The jumlah dana ts2 format is invalid. It should be in the format like 123,000,000.</t>
   </si>
   <si>
-    <t>fail : Method App\Http\Controllers\TabelC5Controller::dana_pkm_destory does not exist.</t>
-  </si>
-  <si>
-    <t>fail : data tidak tampil</t>
-  </si>
-  <si>
-    <t>fail : tautan tidak berhasil di update</t>
-  </si>
-  <si>
     <t>di uji lagi dengan prodi yang lain. bisa saya ada error krn duplicate tahun</t>
-  </si>
-  <si>
-    <t>fail : SQLSTATE[22003]: Numeric value out of range: 1264 Out of range value for column 'minimum' at row 1</t>
   </si>
   <si>
     <t>tambah repository</t>
@@ -285,9 +252,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
@@ -327,6 +294,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -341,6 +316,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -349,8 +363,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,94 +417,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -496,7 +463,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,13 +541,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,43 +583,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,31 +595,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,25 +607,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,7 +631,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,25 +643,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,7 +676,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,8 +755,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,150 +764,150 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -950,7 +917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -968,9 +935,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1235,27 +1199,13 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment/>
-    </dxf>
-    <dxf>
-      <alignment/>
-    </dxf>
-    <dxf>
-      <alignment/>
-    </dxf>
-    <dxf>
-      <alignment/>
-    </dxf>
-    <dxf>
-      <alignment/>
-    </dxf>
-    <dxf>
-      <alignment/>
-    </dxf>
-    <dxf>
-      <alignment/>
-    </dxf>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1616,7 +1566,7 @@
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="11"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7">
@@ -1631,7 +1581,7 @@
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="11"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
@@ -1646,14 +1596,14 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="11"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1661,7 +1611,7 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="11"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7">
@@ -1676,7 +1626,7 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="11"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7">
@@ -1691,7 +1641,7 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="11"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7">
@@ -1706,7 +1656,7 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="11"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7">
@@ -1721,7 +1671,7 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="11"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7">
@@ -1736,7 +1686,7 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="11"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7">
@@ -1751,7 +1701,7 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="11"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7">
@@ -1766,7 +1716,7 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="11"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7">
@@ -1781,7 +1731,7 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="11"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7">
@@ -1796,7 +1746,7 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="11"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7">
@@ -1811,7 +1761,7 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="11"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7">
@@ -1826,7 +1776,7 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="11"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7">
@@ -1841,7 +1791,7 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="11"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7">
@@ -1856,7 +1806,7 @@
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7">
@@ -1871,7 +1821,7 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7">
@@ -1886,7 +1836,7 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="11"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7">
@@ -1901,7 +1851,7 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="11"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7">
@@ -1916,7 +1866,7 @@
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="11"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7">
@@ -1931,7 +1881,7 @@
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="11"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7">
@@ -1946,7 +1896,7 @@
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7">
@@ -1961,7 +1911,7 @@
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="11"/>
+      <c r="F25" s="10"/>
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7">
@@ -1991,7 +1941,7 @@
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="11"/>
+      <c r="F27" s="10"/>
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7">
@@ -2006,7 +1956,7 @@
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="11"/>
+      <c r="F28" s="10"/>
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7">
@@ -2021,7 +1971,7 @@
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="11"/>
+      <c r="F29" s="10"/>
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7">
@@ -2036,7 +1986,7 @@
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="11"/>
+      <c r="F30" s="10"/>
       <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7">
@@ -2051,7 +2001,7 @@
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="11"/>
+      <c r="F31" s="10"/>
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7">
@@ -2066,7 +2016,7 @@
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="11"/>
+      <c r="F32" s="10"/>
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7">
@@ -2081,8 +2031,8 @@
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="7">
@@ -2096,7 +2046,7 @@
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="11"/>
+      <c r="F34" s="10"/>
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7">
@@ -2111,7 +2061,7 @@
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="11"/>
+      <c r="F35" s="10"/>
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7">
@@ -2126,7 +2076,7 @@
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="11"/>
+      <c r="F36" s="10"/>
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7">
@@ -2141,7 +2091,7 @@
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="11"/>
+      <c r="F37" s="10"/>
       <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:7">
@@ -2156,7 +2106,7 @@
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="11"/>
+      <c r="F38" s="10"/>
       <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7">
@@ -2171,7 +2121,7 @@
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="11"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="7"/>
     </row>
     <row r="40" spans="1:7">
@@ -2186,7 +2136,7 @@
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="11"/>
+      <c r="F40" s="10"/>
       <c r="G40" s="7"/>
     </row>
     <row r="41" spans="1:7">
@@ -2201,7 +2151,7 @@
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
-      <c r="F41" s="11"/>
+      <c r="F41" s="10"/>
       <c r="G41" s="7"/>
     </row>
     <row r="42" spans="1:7">
@@ -2216,7 +2166,7 @@
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="11"/>
+      <c r="F42" s="10"/>
       <c r="G42" s="7"/>
     </row>
     <row r="43" spans="1:7">
@@ -2231,7 +2181,7 @@
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="11"/>
+      <c r="F43" s="10"/>
       <c r="G43" s="7"/>
     </row>
     <row r="44" spans="1:7">
@@ -2246,7 +2196,7 @@
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="11"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="7"/>
     </row>
     <row r="45" spans="1:7">
@@ -2261,7 +2211,7 @@
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="11"/>
+      <c r="F45" s="10"/>
       <c r="G45" s="7"/>
     </row>
     <row r="46" spans="1:7">
@@ -2276,7 +2226,7 @@
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
-      <c r="F46" s="11"/>
+      <c r="F46" s="10"/>
       <c r="G46" s="7"/>
     </row>
     <row r="47" spans="1:7">
@@ -2291,7 +2241,7 @@
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
-      <c r="F47" s="11"/>
+      <c r="F47" s="10"/>
       <c r="G47" s="7"/>
     </row>
     <row r="48" spans="1:7">
@@ -2306,7 +2256,7 @@
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
-      <c r="F48" s="11"/>
+      <c r="F48" s="10"/>
       <c r="G48" s="7"/>
     </row>
     <row r="49" spans="1:7">
@@ -2321,7 +2271,7 @@
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
-      <c r="F49" s="11"/>
+      <c r="F49" s="10"/>
       <c r="G49" s="7"/>
     </row>
     <row r="50" spans="1:7">
@@ -2336,7 +2286,7 @@
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
-      <c r="F50" s="11"/>
+      <c r="F50" s="10"/>
       <c r="G50" s="7"/>
     </row>
     <row r="51" spans="1:7">
@@ -2351,7 +2301,7 @@
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
-      <c r="F51" s="11"/>
+      <c r="F51" s="10"/>
       <c r="G51" s="7"/>
     </row>
     <row r="52" spans="1:7">
@@ -2366,7 +2316,7 @@
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
-      <c r="F52" s="11"/>
+      <c r="F52" s="10"/>
       <c r="G52" s="7"/>
     </row>
     <row r="53" spans="1:7">
@@ -2385,7 +2335,7 @@
       <c r="E53" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G53" s="7"/>
@@ -2402,7 +2352,7 @@
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
-      <c r="F54" s="11"/>
+      <c r="F54" s="10"/>
       <c r="G54" s="7"/>
     </row>
     <row r="55" spans="1:7">
@@ -2413,29 +2363,29 @@
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
-      <c r="F55" s="11"/>
+      <c r="F55" s="10"/>
       <c r="G55" s="7"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="13"/>
+      <c r="B56" s="12"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
-      <c r="F56" s="11"/>
+      <c r="F56" s="10"/>
       <c r="G56" s="7"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="13"/>
+      <c r="B57" s="12"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
-      <c r="F57" s="11"/>
+      <c r="F57" s="10"/>
       <c r="G57" s="7"/>
     </row>
     <row r="58" spans="1:7">
@@ -2445,7 +2395,7 @@
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
-      <c r="F58" s="11"/>
+      <c r="F58" s="10"/>
       <c r="G58" s="7"/>
     </row>
     <row r="59" spans="1:7">
@@ -2455,7 +2405,7 @@
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
-      <c r="F59" s="11"/>
+      <c r="F59" s="10"/>
       <c r="G59" s="7"/>
     </row>
     <row r="60" spans="1:7">
@@ -2466,7 +2416,7 @@
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
-      <c r="F60" s="11"/>
+      <c r="F60" s="10"/>
       <c r="G60" s="7"/>
     </row>
     <row r="61" spans="1:7">
@@ -2477,7 +2427,7 @@
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
-      <c r="F61" s="11"/>
+      <c r="F61" s="10"/>
       <c r="G61" s="7"/>
     </row>
     <row r="62" spans="1:7">
@@ -2488,7 +2438,7 @@
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
-      <c r="F62" s="11"/>
+      <c r="F62" s="10"/>
       <c r="G62" s="7"/>
     </row>
     <row r="63" spans="1:7">
@@ -2499,7 +2449,7 @@
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="11"/>
+      <c r="F63" s="10"/>
       <c r="G63" s="7"/>
     </row>
     <row r="64" spans="1:7">
@@ -2510,7 +2460,7 @@
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
-      <c r="F64" s="11"/>
+      <c r="F64" s="10"/>
       <c r="G64" s="7"/>
     </row>
     <row r="65" spans="1:7">
@@ -2521,7 +2471,7 @@
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
-      <c r="F65" s="11"/>
+      <c r="F65" s="10"/>
       <c r="G65" s="7"/>
     </row>
     <row r="66" spans="1:7">
@@ -2532,7 +2482,7 @@
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
-      <c r="F66" s="11"/>
+      <c r="F66" s="10"/>
       <c r="G66" s="7"/>
     </row>
     <row r="67" spans="1:7">
@@ -2543,7 +2493,7 @@
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
-      <c r="F67" s="11"/>
+      <c r="F67" s="10"/>
       <c r="G67" s="7"/>
     </row>
     <row r="68" spans="1:7">
@@ -2554,7 +2504,7 @@
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="11"/>
+      <c r="F68" s="10"/>
       <c r="G68" s="7"/>
     </row>
     <row r="69" spans="1:7">
@@ -2565,7 +2515,7 @@
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
-      <c r="F69" s="11"/>
+      <c r="F69" s="10"/>
       <c r="G69" s="7"/>
     </row>
     <row r="70" spans="1:7">
@@ -2576,7 +2526,7 @@
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
-      <c r="F70" s="11"/>
+      <c r="F70" s="10"/>
       <c r="G70" s="7"/>
     </row>
     <row r="71" spans="1:7">
@@ -2587,7 +2537,7 @@
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
-      <c r="F71" s="11"/>
+      <c r="F71" s="10"/>
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="1:7">
@@ -2598,7 +2548,7 @@
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
-      <c r="F72" s="11"/>
+      <c r="F72" s="10"/>
       <c r="G72" s="7"/>
     </row>
     <row r="73" spans="1:7">
@@ -2609,7 +2559,7 @@
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
-      <c r="F73" s="11"/>
+      <c r="F73" s="10"/>
       <c r="G73" s="7"/>
     </row>
     <row r="74" spans="1:7">
@@ -2620,7 +2570,7 @@
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
-      <c r="F74" s="11"/>
+      <c r="F74" s="10"/>
       <c r="G74" s="7"/>
     </row>
     <row r="75" spans="1:7">
@@ -2631,7 +2581,7 @@
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
-      <c r="F75" s="11"/>
+      <c r="F75" s="10"/>
       <c r="G75" s="7"/>
     </row>
     <row r="76" spans="1:7">
@@ -2642,7 +2592,7 @@
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
-      <c r="F76" s="11"/>
+      <c r="F76" s="10"/>
       <c r="G76" s="7"/>
     </row>
     <row r="77" spans="1:7">
@@ -2653,7 +2603,7 @@
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
-      <c r="F77" s="11"/>
+      <c r="F77" s="10"/>
       <c r="G77" s="7"/>
     </row>
     <row r="78" spans="1:7">
@@ -2664,7 +2614,7 @@
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
-      <c r="F78" s="11"/>
+      <c r="F78" s="10"/>
       <c r="G78" s="7"/>
     </row>
     <row r="79" spans="1:7">
@@ -2675,7 +2625,7 @@
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="11"/>
+      <c r="F79" s="10"/>
       <c r="G79" s="7"/>
     </row>
     <row r="80" spans="1:7">
@@ -2686,7 +2636,7 @@
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
-      <c r="F80" s="11"/>
+      <c r="F80" s="10"/>
       <c r="G80" s="7"/>
     </row>
     <row r="81" spans="1:7">
@@ -2697,7 +2647,7 @@
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
-      <c r="F81" s="11"/>
+      <c r="F81" s="10"/>
       <c r="G81" s="7"/>
     </row>
     <row r="82" spans="1:7">
@@ -2708,7 +2658,7 @@
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
-      <c r="F82" s="11"/>
+      <c r="F82" s="10"/>
       <c r="G82" s="7"/>
     </row>
     <row r="83" spans="1:7">
@@ -2719,7 +2669,7 @@
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
-      <c r="F83" s="11"/>
+      <c r="F83" s="10"/>
       <c r="G83" s="7"/>
     </row>
     <row r="84" spans="1:7">
@@ -2730,7 +2680,7 @@
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
-      <c r="F84" s="11"/>
+      <c r="F84" s="10"/>
       <c r="G84" s="7"/>
     </row>
     <row r="85" spans="1:7">
@@ -2741,7 +2691,7 @@
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
-      <c r="F85" s="11"/>
+      <c r="F85" s="10"/>
       <c r="G85" s="7"/>
     </row>
     <row r="86" spans="1:7">
@@ -2752,7 +2702,7 @@
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
-      <c r="F86" s="11"/>
+      <c r="F86" s="10"/>
       <c r="G86" s="7"/>
     </row>
     <row r="87" spans="1:7">
@@ -2763,7 +2713,7 @@
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
-      <c r="F87" s="11"/>
+      <c r="F87" s="10"/>
       <c r="G87" s="7"/>
     </row>
     <row r="88" spans="1:7">
@@ -2774,7 +2724,7 @@
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
-      <c r="F88" s="11"/>
+      <c r="F88" s="10"/>
       <c r="G88" s="7"/>
     </row>
     <row r="89" spans="1:7">
@@ -2785,7 +2735,7 @@
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
-      <c r="F89" s="11"/>
+      <c r="F89" s="10"/>
       <c r="G89" s="7"/>
     </row>
     <row r="90" spans="1:7">
@@ -2796,7 +2746,7 @@
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
-      <c r="F90" s="11"/>
+      <c r="F90" s="10"/>
       <c r="G90" s="7"/>
     </row>
     <row r="91" spans="1:7">
@@ -2807,7 +2757,7 @@
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
-      <c r="F91" s="11"/>
+      <c r="F91" s="10"/>
       <c r="G91" s="7"/>
     </row>
     <row r="92" spans="1:7">
@@ -2818,7 +2768,7 @@
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
-      <c r="F92" s="11"/>
+      <c r="F92" s="10"/>
       <c r="G92" s="7"/>
     </row>
     <row r="93" spans="1:7">
@@ -2829,7 +2779,7 @@
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
-      <c r="F93" s="11"/>
+      <c r="F93" s="10"/>
       <c r="G93" s="7"/>
     </row>
     <row r="94" spans="1:7">
@@ -2840,7 +2790,7 @@
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
-      <c r="F94" s="11"/>
+      <c r="F94" s="10"/>
       <c r="G94" s="7"/>
     </row>
     <row r="95" spans="1:7">
@@ -2851,7 +2801,7 @@
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="11"/>
+      <c r="F95" s="10"/>
       <c r="G95" s="7"/>
     </row>
     <row r="96" spans="1:7">
@@ -2862,7 +2812,7 @@
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
-      <c r="F96" s="11"/>
+      <c r="F96" s="10"/>
       <c r="G96" s="7"/>
     </row>
     <row r="97" spans="1:7">
@@ -2873,7 +2823,7 @@
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
-      <c r="F97" s="11"/>
+      <c r="F97" s="10"/>
       <c r="G97" s="7"/>
     </row>
     <row r="98" spans="1:7">
@@ -2884,7 +2834,7 @@
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
-      <c r="F98" s="11"/>
+      <c r="F98" s="10"/>
       <c r="G98" s="7"/>
     </row>
     <row r="99" spans="1:7">
@@ -2895,7 +2845,7 @@
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
-      <c r="F99" s="11"/>
+      <c r="F99" s="10"/>
       <c r="G99" s="7"/>
     </row>
     <row r="100" spans="1:7">
@@ -2906,7 +2856,7 @@
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
-      <c r="F100" s="11"/>
+      <c r="F100" s="10"/>
       <c r="G100" s="7"/>
     </row>
   </sheetData>
@@ -2995,8 +2945,8 @@
   <sheetPr/>
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:F29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -3023,7 +2973,7 @@
       <c r="D2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3066,7 +3016,7 @@
       <c r="E6" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>66</v>
       </c>
       <c r="G6" s="7"/>
@@ -3087,7 +3037,7 @@
       <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>66</v>
       </c>
       <c r="G7" s="7"/>
@@ -3108,7 +3058,7 @@
       <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="7"/>
@@ -3124,12 +3074,12 @@
         <v>8</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="7"/>
@@ -3150,7 +3100,7 @@
       <c r="E10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="7"/>
@@ -3171,7 +3121,7 @@
       <c r="E11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="7"/>
@@ -3192,7 +3142,7 @@
       <c r="E12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G12" s="7"/>
@@ -3213,7 +3163,7 @@
       <c r="E13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="7"/>
@@ -3234,7 +3184,7 @@
       <c r="E14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="7"/>
@@ -3250,12 +3200,12 @@
         <v>8</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="7"/>
@@ -3276,7 +3226,7 @@
       <c r="E16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G16" s="7"/>
@@ -3297,7 +3247,7 @@
       <c r="E17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G17" s="7"/>
@@ -3318,7 +3268,7 @@
       <c r="E18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="7"/>
@@ -3339,7 +3289,7 @@
       <c r="E19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G19" s="7"/>
@@ -3360,7 +3310,7 @@
       <c r="E20" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="10" t="s">
         <v>66</v>
       </c>
       <c r="G20" s="7"/>
@@ -3379,9 +3329,9 @@
         <v>8</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G21" s="7"/>
@@ -3394,16 +3344,16 @@
         <v>24</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>71</v>
+        <v>8</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="G22" s="7"/>
     </row>
@@ -3415,16 +3365,16 @@
         <v>25</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>71</v>
+        <v>8</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="G23" s="7"/>
     </row>
@@ -3436,16 +3386,16 @@
         <v>26</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="G24" s="7"/>
     </row>
@@ -3465,7 +3415,7 @@
       <c r="E25" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G25" s="7"/>
@@ -3486,7 +3436,7 @@
       <c r="E26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G26" s="7"/>
@@ -3507,7 +3457,7 @@
       <c r="E27" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G27" s="7"/>
@@ -3528,7 +3478,7 @@
       <c r="E28" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G28" s="7"/>
@@ -3541,16 +3491,16 @@
         <v>32</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="G29" s="7"/>
     </row>
@@ -3562,16 +3512,16 @@
         <v>33</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="G30" s="7"/>
     </row>
@@ -3589,9 +3539,9 @@
         <v>8</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G31" s="7"/>
@@ -3610,9 +3560,9 @@
         <v>8</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G32" s="7"/>
@@ -3631,9 +3581,9 @@
         <v>8</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G33" s="7"/>
@@ -3652,10 +3602,10 @@
         <v>8</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>76</v>
+        <v>68</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="G34" s="7"/>
     </row>
@@ -3675,7 +3625,7 @@
       <c r="E35" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G35" s="7"/>
@@ -3691,12 +3641,12 @@
         <v>8</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="7"/>
@@ -3715,12 +3665,12 @@
         <v>8</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="12"/>
+        <v>8</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="11"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:7">
       <c r="A38" s="7">
@@ -3738,7 +3688,7 @@
       <c r="E38" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G38" s="7"/>
@@ -3759,7 +3709,7 @@
       <c r="E39" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G39" s="7"/>
@@ -3780,7 +3730,7 @@
       <c r="E40" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G40" s="7"/>
@@ -3801,7 +3751,7 @@
       <c r="E41" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G41" s="7"/>
@@ -3822,7 +3772,7 @@
       <c r="E42" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G42" s="7"/>
@@ -3843,7 +3793,7 @@
       <c r="E43" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G43" s="7"/>
@@ -3864,7 +3814,7 @@
       <c r="E44" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G44" s="7"/>
@@ -3885,7 +3835,7 @@
       <c r="E45" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G45" s="7"/>
@@ -3906,11 +3856,11 @@
       <c r="E46" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:7">
@@ -3924,12 +3874,12 @@
         <v>8</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F47" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G47" s="7"/>
@@ -3950,7 +3900,7 @@
       <c r="E48" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="7"/>
@@ -3971,7 +3921,7 @@
       <c r="E49" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G49" s="7"/>
@@ -3992,7 +3942,7 @@
       <c r="E50" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G50" s="7"/>
@@ -4013,7 +3963,7 @@
       <c r="E51" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G51" s="7"/>
@@ -4034,7 +3984,7 @@
       <c r="E52" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G52" s="7"/>
@@ -4055,7 +4005,7 @@
       <c r="E53" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G53" s="7"/>
@@ -4076,7 +4026,7 @@
       <c r="E54" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G54" s="7"/>
@@ -4097,7 +4047,7 @@
       <c r="E55" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G55" s="7"/>
@@ -4118,7 +4068,7 @@
       <c r="E56" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G56" s="7"/>
@@ -4128,7 +4078,7 @@
         <v>52</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>66</v>
@@ -4139,7 +4089,7 @@
       <c r="E57" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="10" t="s">
         <v>66</v>
       </c>
       <c r="G57" s="7"/>
@@ -4149,7 +4099,7 @@
         <v>53</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>8</v>
@@ -4160,7 +4110,7 @@
       <c r="E58" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G58" s="7"/>
@@ -4169,8 +4119,8 @@
       <c r="A59" s="7">
         <v>54</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>83</v>
+      <c r="B59" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>8</v>
@@ -4181,7 +4131,7 @@
       <c r="E59" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F59" s="11" t="s">
+      <c r="F59" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G59" s="7"/>
@@ -4191,7 +4141,7 @@
         <v>55</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>8</v>
@@ -4202,7 +4152,7 @@
       <c r="E60" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G60" s="7"/>
@@ -4212,7 +4162,7 @@
         <v>56</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>8</v>
@@ -4223,7 +4173,7 @@
       <c r="E61" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F61" s="11" t="s">
+      <c r="F61" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G61" s="7"/>
@@ -4244,11 +4194,11 @@
       <c r="E62" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="11" t="s">
+      <c r="F62" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" spans="1:7">
@@ -4267,7 +4217,7 @@
       <c r="E63" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="11" t="s">
+      <c r="F63" s="10" t="s">
         <v>66</v>
       </c>
       <c r="G63" s="7"/>
@@ -4280,7 +4230,7 @@
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
-      <c r="F64" s="11"/>
+      <c r="F64" s="10"/>
       <c r="G64" s="7"/>
     </row>
     <row r="65" s="1" customFormat="1" spans="1:7">
@@ -4290,7 +4240,7 @@
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
-      <c r="F65" s="11"/>
+      <c r="F65" s="10"/>
       <c r="G65" s="7"/>
     </row>
     <row r="66" s="1" customFormat="1" spans="1:7">
@@ -4301,7 +4251,7 @@
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
-      <c r="F66" s="11"/>
+      <c r="F66" s="10"/>
       <c r="G66" s="7"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:7">
@@ -4312,7 +4262,7 @@
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
-      <c r="F67" s="11"/>
+      <c r="F67" s="10"/>
       <c r="G67" s="7"/>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:7">
@@ -4323,7 +4273,7 @@
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="11"/>
+      <c r="F68" s="10"/>
       <c r="G68" s="7"/>
     </row>
     <row r="69" s="1" customFormat="1" spans="1:7">
@@ -4334,7 +4284,7 @@
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
-      <c r="F69" s="11"/>
+      <c r="F69" s="10"/>
       <c r="G69" s="7"/>
     </row>
     <row r="70" s="1" customFormat="1" spans="1:7">
@@ -4345,7 +4295,7 @@
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
-      <c r="F70" s="11"/>
+      <c r="F70" s="10"/>
       <c r="G70" s="7"/>
     </row>
     <row r="71" s="1" customFormat="1" spans="1:7">
@@ -4356,7 +4306,7 @@
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
-      <c r="F71" s="11"/>
+      <c r="F71" s="10"/>
       <c r="G71" s="7"/>
     </row>
     <row r="72" s="1" customFormat="1" spans="1:7">
@@ -4367,7 +4317,7 @@
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
-      <c r="F72" s="11"/>
+      <c r="F72" s="10"/>
       <c r="G72" s="7"/>
     </row>
     <row r="73" s="1" customFormat="1" spans="1:7">
@@ -4378,7 +4328,7 @@
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
-      <c r="F73" s="11"/>
+      <c r="F73" s="10"/>
       <c r="G73" s="7"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="1:7">
@@ -4389,7 +4339,7 @@
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
-      <c r="F74" s="11"/>
+      <c r="F74" s="10"/>
       <c r="G74" s="7"/>
     </row>
     <row r="75" s="1" customFormat="1" spans="1:7">
@@ -4400,7 +4350,7 @@
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
-      <c r="F75" s="11"/>
+      <c r="F75" s="10"/>
       <c r="G75" s="7"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="1:7">
@@ -4411,7 +4361,7 @@
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
-      <c r="F76" s="11"/>
+      <c r="F76" s="10"/>
       <c r="G76" s="7"/>
     </row>
     <row r="77" s="1" customFormat="1" spans="1:7">
@@ -4422,7 +4372,7 @@
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
-      <c r="F77" s="11"/>
+      <c r="F77" s="10"/>
       <c r="G77" s="7"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="1:7">
@@ -4433,7 +4383,7 @@
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
-      <c r="F78" s="11"/>
+      <c r="F78" s="10"/>
       <c r="G78" s="7"/>
     </row>
     <row r="79" s="1" customFormat="1" spans="1:7">
@@ -4444,7 +4394,7 @@
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="11"/>
+      <c r="F79" s="10"/>
       <c r="G79" s="7"/>
     </row>
     <row r="80" s="1" customFormat="1" spans="1:7">
@@ -4455,7 +4405,7 @@
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
-      <c r="F80" s="11"/>
+      <c r="F80" s="10"/>
       <c r="G80" s="7"/>
     </row>
     <row r="81" s="1" customFormat="1" spans="1:7">
@@ -4466,7 +4416,7 @@
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
-      <c r="F81" s="11"/>
+      <c r="F81" s="10"/>
       <c r="G81" s="7"/>
     </row>
     <row r="82" s="1" customFormat="1" spans="1:7">
@@ -4477,7 +4427,7 @@
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
-      <c r="F82" s="11"/>
+      <c r="F82" s="10"/>
       <c r="G82" s="7"/>
     </row>
     <row r="83" s="1" customFormat="1" spans="1:7">
@@ -4488,7 +4438,7 @@
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
-      <c r="F83" s="11"/>
+      <c r="F83" s="10"/>
       <c r="G83" s="7"/>
     </row>
     <row r="84" s="1" customFormat="1" spans="1:7">
@@ -4499,7 +4449,7 @@
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
-      <c r="F84" s="11"/>
+      <c r="F84" s="10"/>
       <c r="G84" s="7"/>
     </row>
     <row r="85" s="1" customFormat="1" spans="1:7">
@@ -4510,7 +4460,7 @@
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
-      <c r="F85" s="11"/>
+      <c r="F85" s="10"/>
       <c r="G85" s="7"/>
     </row>
     <row r="86" s="1" customFormat="1" spans="1:7">
@@ -4521,7 +4471,7 @@
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
-      <c r="F86" s="11"/>
+      <c r="F86" s="10"/>
       <c r="G86" s="7"/>
     </row>
     <row r="87" s="1" customFormat="1" spans="1:7">
@@ -4532,7 +4482,7 @@
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
-      <c r="F87" s="11"/>
+      <c r="F87" s="10"/>
       <c r="G87" s="7"/>
     </row>
     <row r="88" s="1" customFormat="1" spans="1:7">
@@ -4543,7 +4493,7 @@
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
-      <c r="F88" s="11"/>
+      <c r="F88" s="10"/>
       <c r="G88" s="7"/>
     </row>
     <row r="89" s="1" customFormat="1" spans="1:7">
@@ -4554,7 +4504,7 @@
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
-      <c r="F89" s="11"/>
+      <c r="F89" s="10"/>
       <c r="G89" s="7"/>
     </row>
     <row r="90" s="1" customFormat="1" spans="1:7">
@@ -4565,7 +4515,7 @@
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
-      <c r="F90" s="11"/>
+      <c r="F90" s="10"/>
       <c r="G90" s="7"/>
     </row>
     <row r="91" s="1" customFormat="1" spans="1:7">
@@ -4576,7 +4526,7 @@
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
-      <c r="F91" s="11"/>
+      <c r="F91" s="10"/>
       <c r="G91" s="7"/>
     </row>
     <row r="92" s="1" customFormat="1" spans="1:7">
@@ -4587,7 +4537,7 @@
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
-      <c r="F92" s="11"/>
+      <c r="F92" s="10"/>
       <c r="G92" s="7"/>
     </row>
     <row r="93" s="1" customFormat="1" spans="1:7">
@@ -4598,7 +4548,7 @@
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
-      <c r="F93" s="11"/>
+      <c r="F93" s="10"/>
       <c r="G93" s="7"/>
     </row>
     <row r="94" s="1" customFormat="1" spans="1:7">
@@ -4609,7 +4559,7 @@
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
-      <c r="F94" s="11"/>
+      <c r="F94" s="10"/>
       <c r="G94" s="7"/>
     </row>
     <row r="95" s="1" customFormat="1" spans="1:7">
@@ -4620,7 +4570,7 @@
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="11"/>
+      <c r="F95" s="10"/>
       <c r="G95" s="7"/>
     </row>
     <row r="96" s="1" customFormat="1" spans="1:7">
@@ -4631,7 +4581,7 @@
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
-      <c r="F96" s="11"/>
+      <c r="F96" s="10"/>
       <c r="G96" s="7"/>
     </row>
     <row r="97" s="1" customFormat="1" spans="1:7">
@@ -4642,7 +4592,7 @@
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
-      <c r="F97" s="11"/>
+      <c r="F97" s="10"/>
       <c r="G97" s="7"/>
     </row>
     <row r="98" s="1" customFormat="1" spans="1:7">
@@ -4653,7 +4603,7 @@
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
-      <c r="F98" s="11"/>
+      <c r="F98" s="10"/>
       <c r="G98" s="7"/>
     </row>
     <row r="99" s="1" customFormat="1" spans="1:7">
@@ -4664,7 +4614,7 @@
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
-      <c r="F99" s="11"/>
+      <c r="F99" s="10"/>
       <c r="G99" s="7"/>
     </row>
     <row r="100" s="1" customFormat="1" spans="1:7">
@@ -4675,7 +4625,7 @@
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
-      <c r="F100" s="11"/>
+      <c r="F100" s="10"/>
       <c r="G100" s="7"/>
     </row>
     <row r="101" s="1" customFormat="1" spans="1:7">
@@ -4686,7 +4636,7 @@
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
-      <c r="F101" s="11"/>
+      <c r="F101" s="10"/>
       <c r="G101" s="7"/>
     </row>
     <row r="102" s="1" customFormat="1" spans="1:7">
@@ -4697,7 +4647,7 @@
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
-      <c r="F102" s="11"/>
+      <c r="F102" s="10"/>
       <c r="G102" s="7"/>
     </row>
     <row r="103" s="1" customFormat="1" spans="1:7">
@@ -4708,7 +4658,7 @@
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
-      <c r="F103" s="11"/>
+      <c r="F103" s="10"/>
       <c r="G103" s="7"/>
     </row>
     <row r="104" s="1" customFormat="1" spans="1:7">
@@ -4719,69 +4669,61 @@
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
-      <c r="F104" s="11"/>
+      <c r="F104" s="10"/>
       <c r="G104" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="8" priority="12" operator="between" text="fail">
+    <cfRule type="containsText" dxfId="8" priority="14" operator="between" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="13" operator="between" text="pass">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="between" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:D23">
-    <cfRule type="containsText" dxfId="8" priority="10" operator="between" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",C23)))</formula>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="between" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="between" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",C23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="7" priority="4" operator="between" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",F23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="3" operator="between" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",F23)))</formula>
+    <cfRule type="containsText" dxfId="8" priority="7" operator="between" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",E24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:F29">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="between" text="pass">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="between" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",D29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="1" operator="between" text="fail">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="between" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",D29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:F32">
-    <cfRule type="containsText" dxfId="8" priority="8" operator="between" text="fail">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="between" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",C32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="9" operator="between" text="pass">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="between" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23:E24">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="between" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",E23)))</formula>
+  <conditionalFormatting sqref="E6:F22 C6:D14 D15 C33:F104 C16:D22 C24:D24 F24 C25:F28 C29 C30:F31">
+    <cfRule type="containsText" dxfId="8" priority="16" operator="between" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="5" operator="between" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",E23)))</formula>
+    <cfRule type="containsText" dxfId="7" priority="17" operator="between" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:F63">
-    <cfRule type="containsText" dxfId="16" priority="7" operator="between" text="none">
+    <cfRule type="containsText" dxfId="16" priority="9" operator="between" text="none">
       <formula>NOT(ISERROR(SEARCH("none",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:F22 C6:D14 D15 C33:F104 C16:D22 C24:D24 F24 C25:F28 C29 C30:F31">
-    <cfRule type="containsText" dxfId="8" priority="14" operator="between" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",C6)))</formula>
+  <conditionalFormatting sqref="E23:F23 C23:D23">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="between" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",C23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="15" operator="between" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",C6)))</formula>
+    <cfRule type="containsText" dxfId="8" priority="1" operator="between" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
